--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-61\itech-aurum\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF75AC0C-2AB8-4CFE-8B40-4B6E271F3083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCCF480-986E-44B1-99E2-DD847D385956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15825" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
   <si>
     <t>type</t>
   </si>
@@ -986,10 +986,10 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1151,7 +1151,9 @@
       <c r="E6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -1163,7 +1165,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>1</v>
@@ -1183,7 +1185,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>31</v>
@@ -1390,7 +1392,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:27" ht="57">
+    <row r="16" spans="1:27" ht="28.5">
       <c r="A16" s="16" t="s">
         <v>47</v>
       </c>
@@ -1641,7 +1643,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-81\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCCF480-986E-44B1-99E2-DD847D385956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9193D-D6BE-4329-B247-4F8C6A6C60DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
   <si>
     <t>type</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>Why was client NOT asked to seek care?</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +533,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -575,7 +584,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -601,6 +609,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,260 +995,273 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.375" style="11"/>
-    <col min="4" max="4" width="37.25" style="11"/>
-    <col min="5" max="5" width="9.25" style="11"/>
-    <col min="6" max="6" width="11.5" style="11"/>
-    <col min="7" max="7" width="19.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="11"/>
-    <col min="9" max="9" width="34" style="11"/>
-    <col min="10" max="11" width="11.5" style="11"/>
-    <col min="12" max="12" width="20.25" style="11" customWidth="1"/>
-    <col min="13" max="1026" width="11.5" style="11"/>
-    <col min="1027" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="24.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="10"/>
+    <col min="4" max="4" width="37.25" style="10"/>
+    <col min="5" max="5" width="9.25" style="10"/>
+    <col min="6" max="6" width="11.5" style="10"/>
+    <col min="7" max="7" width="19.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="10"/>
+    <col min="9" max="9" width="34" style="10"/>
+    <col min="10" max="11" width="11.5" style="10"/>
+    <col min="12" max="12" width="19.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="11.5" style="10"/>
+    <col min="1027" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="23" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="23" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="13"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:27" ht="42.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1256,27 +1278,27 @@
       <c r="L11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1295,27 +1317,29 @@
       <c r="L12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
+      <c r="M12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1332,305 +1356,315 @@
       <c r="L13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
     </row>
     <row r="14" spans="1:27" ht="99.75">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:27" ht="28.5">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:27" ht="28.5">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
     </row>
     <row r="18" spans="1:27" ht="28.5">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-81\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9193D-D6BE-4329-B247-4F8C6A6C60DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4DE734-D2C3-444E-9326-7CAACB306BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>../inputs/contact/phone</t>
   </si>
   <si>
-    <t>This form is NOT for AEs recorded in the Day 2 or Day 7 SMS Received forms. Study Nurse will use this form to record every other potential AE report, even if multiple per client, including: 1) A client sends a YES SMS to note a potential AE; 2) A client sends a question about a symptom via SMS; and 3) A client requests a follow-up call.</t>
-  </si>
-  <si>
     <t>select_one days_post_mc</t>
   </si>
   <si>
@@ -396,6 +393,9 @@
   </si>
   <si>
     <t>instance::tag</t>
+  </si>
+  <si>
+    <t>Study Nurse will use this form to record every potential AE reported, even if multiple per client, including: 1) A client sends a YES SMS to note a potential AE; 2) A client sends a question about a symptom via SMS; and 3) A client requests a follow-up call.</t>
   </si>
 </sst>
 </file>
@@ -995,10 +995,10 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1039,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>6</v>
@@ -1057,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1372,15 +1372,15 @@
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
     </row>
-    <row r="14" spans="1:27" ht="99.75">
+    <row r="14" spans="1:27" ht="85.5">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="15" spans="1:27" ht="28.5">
       <c r="A15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1409,7 +1409,7 @@
         <v>39</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1420,13 +1420,13 @@
     </row>
     <row r="16" spans="1:27" ht="28.5">
       <c r="A16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1434,7 +1434,7 @@
         <v>39</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -1462,13 +1462,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="D17" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16" t="s">
@@ -1498,13 +1498,13 @@
     </row>
     <row r="18" spans="1:27" ht="28.5">
       <c r="A18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="C18" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1519,13 +1519,13 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="C19" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -1561,16 +1561,16 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
@@ -1589,10 +1589,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
@@ -1631,13 +1631,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -1691,7 +1691,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -1702,35 +1702,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1740,79 +1740,79 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1822,29 +1822,29 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1">
         <v>9</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>11</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1">
         <v>12</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1">
         <v>13</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="1">
         <v>14</v>
@@ -1998,68 +1998,68 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2089,31 +2089,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -2135,29 +2135,29 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="C2" s="7">
         <v>43008</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>

--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-81\itech-aurum\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772DF1B-3766-490B-92CC-7BE17053C016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D06A958-FDBA-4325-A085-B392E3C05E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>This form is NOT for AEs recorded in the Day 2 or Day 7 SMS Received forms. Study Nurse will use this form to record every other potential AE report, even if multiple per client, including: 1) A client sends a YES SMS to note a potential AE; 2) A client sends a question about a symptom via SMS; and 3) A client requests a follow-up call.</t>
-  </si>
-  <si>
     <t>g_post_mc</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>instance::tag</t>
+  </si>
+  <si>
+    <t>Study Nurse will use this form to record every potential AE reported, even if multiple per client, including: 1) A client sends a YES SMS to note a potential AE; 2) A client sends a question about a symptom via SMS; and 3) A client requests a follow-up call.</t>
   </si>
 </sst>
 </file>
@@ -1009,10 +1009,10 @@
   <dimension ref="A1:AMJ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1384,7 +1384,7 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14" spans="1:27" ht="100.5">
+    <row r="14" spans="1:27" ht="86.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1410,10 +1410,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
@@ -1430,23 +1430,23 @@
     </row>
     <row r="16" spans="1:27" ht="29.25">
       <c r="A16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1457,16 +1457,16 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
@@ -1502,10 +1502,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
@@ -1522,13 +1522,13 @@
     </row>
     <row r="20" spans="1:27" ht="29.25">
       <c r="A20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1536,7 +1536,7 @@
         <v>30</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1564,13 +1564,13 @@
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
@@ -1631,13 +1631,13 @@
     </row>
     <row r="23" spans="1:27" ht="29.25">
       <c r="A23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1673,13 +1673,13 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -1694,16 +1694,16 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
@@ -1722,10 +1722,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
@@ -1764,13 +1764,13 @@
         <v>17</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -1822,7 +1822,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
@@ -1833,35 +1833,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1871,79 +1871,79 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1953,29 +1953,29 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="17">
         <v>1</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="17">
         <v>3</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="17">
         <v>4</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="17">
         <v>5</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="17">
         <v>6</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="17">
         <v>7</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="17">
         <v>8</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="17">
         <v>9</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="17">
         <v>10</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="17">
         <v>11</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="17">
         <v>12</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="17">
         <v>13</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="17">
         <v>14</v>
@@ -2129,79 +2129,79 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>102</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
         <v>109</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
         <v>113</v>
-      </c>
-      <c r="C39" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2227,31 +2227,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
       <c r="A1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
@@ -2273,29 +2273,29 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>124</v>
       </c>
       <c r="C2" s="23">
         <v>43008</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>

--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmanuelamodu/Desktop/medic-mobile/config-itech/zazic-scale-up/forms/app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E92002-1855-9A42-847A-3AD4F317B5C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D373E6B-5773-DA44-9ACB-D8F6E55CA320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="126">
   <si>
     <t>type</t>
   </si>
@@ -170,33 +170,18 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>select_one days_post_mc</t>
-  </si>
-  <si>
     <t>days_post_mc</t>
   </si>
   <si>
     <t>Day post MC that an AE was reported by client.</t>
   </si>
   <si>
-    <t>horizontal</t>
-  </si>
-  <si>
     <t>Please select one option</t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>specify</t>
-  </si>
-  <si>
-    <t>Please specify</t>
-  </si>
-  <si>
-    <t>selected(${days_post_mc}, ‘other’)</t>
-  </si>
-  <si>
     <t>g_symptoms</t>
   </si>
   <si>
@@ -417,6 +402,9 @@
   </si>
   <si>
     <t>Site nurse will use this form to record every potential AE reported, even if multiple per client, including: 1) A client sends a YES SMS to note a potential AE; 2) A client sends a question about a symptom via SMS; and 3) A client requests a follow-up call.</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -426,7 +414,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -486,14 +474,14 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Proxima Nova"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Proxima Nova"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1006,16 +994,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ30"/>
+  <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
@@ -1031,7 +1019,7 @@
     <col min="13" max="1024" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1069,10 +1057,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1085,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1110,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1133,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1154,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="46">
+    <row r="6" spans="1:27" ht="46" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1193,7 +1181,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1202,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1235,7 +1223,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1252,7 +1240,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1269,7 +1257,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1306,7 +1294,7 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1335,7 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1384,7 +1372,7 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1393,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="76">
+    <row r="15" spans="1:27" ht="76" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -1413,7 +1401,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
@@ -1428,25 +1416,25 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:27" ht="31">
+    <row r="16" spans="1:27" ht="31" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1455,23 +1443,15 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>55</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1480,14 +1460,20 @@
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1497,47 +1483,63 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="31" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:27" ht="31">
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1559,23 +1561,15 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>63</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1598,12 +1592,16 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="31" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
@@ -1614,30 +1612,16 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-    </row>
-    <row r="23" spans="1:27" ht="31">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1650,15 +1634,15 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1671,19 +1655,23 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1692,40 +1680,36 @@
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:27">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1738,17 +1722,19 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>123</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
@@ -1759,45 +1745,22 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-    </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1814,15 +1777,15 @@
       <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
@@ -1831,151 +1794,151 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="17" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="17" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="17" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="17" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="17">
         <v>1</v>
@@ -1984,9 +1947,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -1995,9 +1958,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="17">
         <v>3</v>
@@ -2006,9 +1969,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="17">
         <v>4</v>
@@ -2017,9 +1980,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="17">
         <v>5</v>
@@ -2028,9 +1991,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="17">
         <v>6</v>
@@ -2039,9 +2002,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="17">
         <v>7</v>
@@ -2050,9 +2013,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="17">
         <v>8</v>
@@ -2061,9 +2024,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="17">
         <v>9</v>
@@ -2072,9 +2035,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="17">
         <v>10</v>
@@ -2083,9 +2046,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="17">
         <v>11</v>
@@ -2094,9 +2057,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="17">
         <v>12</v>
@@ -2105,9 +2068,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="17">
         <v>13</v>
@@ -2116,9 +2079,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="17">
         <v>14</v>
@@ -2127,81 +2090,81 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C35" s="18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="C39" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2216,7 +2179,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
@@ -2225,33 +2188,33 @@
     <col min="16" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" customHeight="1">
+    <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
@@ -2271,31 +2234,31 @@
       <c r="Y1" s="20"/>
       <c r="Z1" s="20"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C2" s="23">
         <v>43008</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>

--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D373E6B-5773-DA44-9ACB-D8F6E55CA320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD85A9D-ADA1-D74E-B982-8CD33831A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
   <si>
     <t>type</t>
   </si>
@@ -206,9 +206,6 @@
     <t>selected(${symptoms}, 'other')</t>
   </si>
   <si>
-    <t>select_one followup_request</t>
-  </si>
-  <si>
     <t>followup_request</t>
   </si>
   <si>
@@ -405,6 +402,21 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>photo_review</t>
+  </si>
+  <si>
+    <t>Photo Review</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>select_multiple followup_request</t>
   </si>
 </sst>
 </file>
@@ -997,10 +1009,10 @@
   <dimension ref="A1:AMJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1057,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -1401,7 +1413,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
@@ -1428,7 +1440,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>30</v>
@@ -1594,13 +1606,13 @@
     </row>
     <row r="22" spans="1:27" ht="31" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -1615,13 +1627,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -1636,13 +1648,13 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1657,16 +1669,16 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
@@ -1685,10 +1697,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -1703,13 +1715,13 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -1727,13 +1739,13 @@
         <v>17</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="D28" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -1770,11 +1782,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1785,7 +1797,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
@@ -1796,35 +1808,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,10 +1849,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1848,10 +1860,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,10 +1871,10 @@
         <v>53</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1870,10 +1882,10 @@
         <v>53</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,10 +1893,10 @@
         <v>53</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1892,10 +1904,10 @@
         <v>53</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1903,10 +1915,10 @@
         <v>53</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1916,24 +1928,24 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2095,76 +2107,98 @@
         <v>47</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>101</v>
+        <v>125</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" t="s">
-        <v>105</v>
+        <v>80</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" t="s">
         <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2190,31 +2224,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
@@ -2236,29 +2270,29 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="C2" s="23">
         <v>43008</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>118</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>119</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>

--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD85A9D-ADA1-D74E-B982-8CD33831A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2715E9-77B9-9645-A14A-13121F1E93F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="128">
   <si>
     <t>type</t>
   </si>
@@ -164,27 +164,15 @@
     <t>note</t>
   </si>
   <si>
-    <t>g_post_mc</t>
-  </si>
-  <si>
-    <t>NO_LABEL</t>
-  </si>
-  <si>
     <t>days_post_mc</t>
   </si>
   <si>
-    <t>Day post MC that an AE was reported by client.</t>
-  </si>
-  <si>
     <t>Please select one option</t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>g_symptoms</t>
-  </si>
-  <si>
     <t>select_multiple  symptoms</t>
   </si>
   <si>
@@ -417,6 +405,12 @@
   </si>
   <si>
     <t>select_multiple followup_request</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Date that a potential AE was reported by client.</t>
   </si>
 </sst>
 </file>
@@ -426,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1006,16 +1000,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ29"/>
+  <dimension ref="A1:AMJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="1" customWidth="1"/>
@@ -1031,7 +1025,7 @@
     <col min="13" max="1024" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1069,10 +1063,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1091,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1116,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1139,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1166,7 +1160,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="46">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1193,7 +1187,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1208,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1235,7 +1229,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
@@ -1252,7 +1246,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1269,7 +1263,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1306,7 +1300,7 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1341,7 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1384,7 +1378,7 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="76">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1392,7 +1386,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1405,48 +1399,50 @@
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:27" ht="76" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="31">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" ht="31" x14ac:dyDescent="0.2">
+      <c r="C15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:27" ht="31">
       <c r="A16" s="8" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1454,16 +1450,38 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -1471,21 +1489,33 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+    </row>
+    <row r="18" spans="1:27" ht="31">
       <c r="A18" s="8" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1495,62 +1525,40 @@
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:27" ht="31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="8" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
@@ -1558,30 +1566,24 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1589,190 +1591,88 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-    </row>
-    <row r="22" spans="1:27" ht="31" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="9" t="s">
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="D24" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1789,15 +1689,15 @@
       <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
@@ -1806,151 +1706,151 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="17" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C9" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="17" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="17" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="17" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="17">
         <v>1</v>
@@ -1959,9 +1859,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="17">
         <v>2</v>
@@ -1970,9 +1870,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="17">
         <v>3</v>
@@ -1981,9 +1881,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="17">
         <v>4</v>
@@ -1992,9 +1892,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="17">
         <v>5</v>
@@ -2003,9 +1903,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="17">
         <v>6</v>
@@ -2014,9 +1914,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="17">
         <v>7</v>
@@ -2025,9 +1925,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="17">
         <v>8</v>
@@ -2036,9 +1936,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="17">
         <v>9</v>
@@ -2047,9 +1947,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="17">
         <v>10</v>
@@ -2058,9 +1958,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="17">
         <v>11</v>
@@ -2069,9 +1969,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="17">
         <v>12</v>
@@ -2080,9 +1980,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="17">
         <v>13</v>
@@ -2091,9 +1991,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="17">
         <v>14</v>
@@ -2102,103 +2002,103 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C37" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="17" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2113,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
@@ -2222,33 +2122,33 @@
     <col min="16" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="18" customHeight="1">
       <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
@@ -2268,31 +2168,31 @@
       <c r="Y1" s="20"/>
       <c r="Z1" s="20"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="23">
         <v>43008</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>

--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2715E9-77B9-9645-A14A-13121F1E93F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46B891-6364-6043-A8AB-03F5646CAE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>days_post_mc</t>
   </si>
   <si>
-    <t>Please select one option</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>Date that a potential AE was reported by client.</t>
+  </si>
+  <si>
+    <t>. &lt;= date(today()) and . &gt;= date(today() - 28)</t>
   </si>
 </sst>
 </file>
@@ -1000,13 +1000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ25"/>
+  <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
@@ -1018,7 +1018,7 @@
     <col min="5" max="5" width="9.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="1"/>
     <col min="7" max="7" width="19.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1"/>
+    <col min="8" max="8" width="32.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="34" style="1" customWidth="1"/>
     <col min="10" max="11" width="11.5" style="1"/>
     <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
@@ -1063,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1386,7 +1386,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1401,88 +1401,70 @@
     </row>
     <row r="15" spans="1:27" ht="31">
       <c r="A15" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="31">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:27">
+      <c r="A16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:27" ht="31">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1504,19 +1486,23 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
     </row>
-    <row r="18" spans="1:27" ht="31">
+    <row r="18" spans="1:27">
       <c r="A18" s="8" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1524,16 +1510,30 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+    </row>
+    <row r="19" spans="1:27" ht="31">
       <c r="A19" s="8" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -1569,21 +1569,17 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -1593,35 +1589,39 @@
       <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="A22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="10" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -1634,45 +1634,45 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
     <row r="25" spans="1:27">
       <c r="A25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1697,7 +1697,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
@@ -1708,35 +1708,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1746,79 +1746,79 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1828,24 +1828,24 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2007,98 +2007,98 @@
         <v>45</v>
       </c>
       <c r="B31" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
         <v>97</v>
-      </c>
-      <c r="C39" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
         <v>99</v>
-      </c>
-      <c r="C40" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
         <v>101</v>
-      </c>
-      <c r="C41" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2124,31 +2124,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
       <c r="A1" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
@@ -2170,29 +2170,29 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>112</v>
       </c>
       <c r="C2" s="23">
         <v>43008</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>115</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>

--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46B891-6364-6043-A8AB-03F5646CAE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3609266F-5084-D54B-83DD-1FD2D61F23FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
   <si>
     <t>type</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>. &lt;= date(today()) and . &gt;= date(today() - 28)</t>
+  </si>
+  <si>
+    <t>Date cannot be in the future OR  more than 4 weeks ago</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1006,10 @@
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
@@ -1420,7 +1423,9 @@
       <c r="H15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>128</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>

--- a/itech-aurum/forms/app/potential_ae.xlsx
+++ b/itech-aurum/forms/app/potential_ae.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/femioni/medic/config-itech/itech-aurum/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD85A9D-ADA1-D74E-B982-8CD33831A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ED12A2-D1B4-244B-B16F-C609FA4EAABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="15500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -374,9 +374,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>Received SMS: potential AE</t>
-  </si>
-  <si>
     <t>potential_ae</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>select_multiple followup_request</t>
+  </si>
+  <si>
+    <t>Received SMS: Potential AE</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -597,33 +597,32 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -1069,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -1413,7 +1412,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
@@ -1440,7 +1439,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>30</v>
@@ -1606,7 +1605,7 @@
     </row>
     <row r="22" spans="1:27" ht="31" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>59</v>
@@ -1745,7 +1744,7 @@
         <v>76</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -2140,10 +2139,10 @@
         <v>59</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2151,10 +2150,10 @@
         <v>59</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2211,7 +2210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2270,47 +2271,29 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="22">
+        <v>43008</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="23">
-        <v>43008</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
